--- a/Game/Resource/Enum/UIType.xlsx
+++ b/Game/Resource/Enum/UIType.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20403"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5340B90-21A6-46C0-A124-66A0FFC430AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5CAF1E-BA4F-4352-AC09-CC7ACEC6F698}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>UIHero</t>
+    <t>HeroInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UIBuilding</t>
+    <t>HeroList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UIChat</t>
+    <t>HeroInfoSub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeroListSub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -356,13 +360,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.75" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -386,6 +393,14 @@
       </c>
       <c r="B3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
